--- a/Puzzel_ICT-vaardigheden_AO1.xlsx
+++ b/Puzzel_ICT-vaardigheden_AO1.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragomir Pogdanovic\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MWitt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B83BEC-6BF0-48C2-8340-4841C11A17FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE94AB-C447-4B10-903F-28F94F70575B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>Oriënteren op de context</t>
   </si>
@@ -251,19 +251,49 @@
     <t>R</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
     <t>j</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t</t>
   </si>
 </sst>
 </file>
@@ -482,7 +512,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,20 +1609,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="89.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="84" customWidth="1"/>
-    <col min="8" max="8" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
@@ -1602,45 +1632,45 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="11"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="11"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="11"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="25.2" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
@@ -1671,7 +1701,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -1732,7 +1762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -1752,7 +1782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -1772,7 +1802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1830,28 +1860,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="84" customWidth="1"/>
-    <col min="8" max="8" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -1882,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D6" s="22" t="str">
         <f t="shared" ref="D6:D23" si="0">IF(COUNTIF($C$6:$C$24,C6)&gt;1,"Dubbele Waarde !",VLOOKUP(C6,$F$5:$G$23,2))</f>
@@ -1904,7 +1934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1912,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D7" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1926,7 +1956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1934,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1948,7 +1978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1956,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1970,7 +2000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1978,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D10" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1992,7 +2022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2000,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2014,7 +2044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2022,11 +2052,11 @@
         <v>47</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D12" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Je schrijft op een duidelijke manier op hoe de informatie wordt opgeslagen in een nieuw systeem.</v>
+        <v>Je maakt een tekening van de werking van een systeem.</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="26" t="s">
@@ -2036,7 +2066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2056,7 +2086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2064,11 +2094,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D14" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Je gebruikt een ander lettertype omdat gebruikers het huidige lettertype niet zo duidelijk vinden.</v>
+        <v/>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="26" t="s">
@@ -2078,19 +2108,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="str">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>Je maakt een tekening van de werking van een systeem.</v>
+        <v>#N/A</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="26" t="s">
@@ -2100,7 +2128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2108,7 +2136,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D16" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2130,11 +2158,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Je maakt een werkend programma aan de hand van een eerder gemaakt ontwerp.</v>
+        <v>Achteraf bekijk je of je het bouwen van een applicatie goed hebt aangepakt.</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="26" t="s">
@@ -2144,7 +2172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2152,7 +2180,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D18" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2166,7 +2194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2174,7 +2202,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D19" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2188,7 +2216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2196,11 +2224,11 @@
         <v>8</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D20" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Je controleert of een programma echt werkt.</v>
+        <v>Je bedenkt hoe een nieuw programma moet gaan werken.</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="26" t="s">
@@ -2210,7 +2238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2218,7 +2246,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D21" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2232,19 +2260,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="22" t="str">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>Achteraf bekijk je of je het bouwen van een applicatie goed hebt aangepakt.</v>
+        <v>#N/A</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="26" t="s">
@@ -2254,7 +2280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -2262,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D23" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2276,7 +2302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
